--- a/Financials/Yearly/AFLYY_YR_FIN.xlsx
+++ b/Financials/Yearly/AFLYY_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29732DF-9953-471E-AA44-B6785B4B3893}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AFLYY" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>AFLYY</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,34 +689,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -708,88 +741,88 @@
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>30265500</v>
+        <v>29022500</v>
       </c>
       <c r="E8" s="3">
-        <v>29164500</v>
+        <v>27877000</v>
       </c>
       <c r="F8" s="3">
-        <v>30156400</v>
+        <v>28825000</v>
       </c>
       <c r="G8" s="3">
-        <v>29263100</v>
+        <v>27971200</v>
       </c>
       <c r="H8" s="3">
-        <v>29967400</v>
+        <v>28644400</v>
       </c>
       <c r="I8" s="3">
-        <v>29860600</v>
+        <v>28542300</v>
       </c>
       <c r="J8" s="3">
-        <v>22390400</v>
+        <v>21402000</v>
       </c>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>19938300</v>
+        <v>18949300</v>
       </c>
       <c r="E9" s="3">
-        <v>19845600</v>
+        <v>18969500</v>
       </c>
       <c r="F9" s="3">
-        <v>21690800</v>
+        <v>20733300</v>
       </c>
       <c r="G9" s="3">
-        <v>20812800</v>
+        <v>19894000</v>
       </c>
       <c r="H9" s="3">
-        <v>20615600</v>
+        <v>19705500</v>
       </c>
       <c r="I9" s="3">
-        <v>40238200</v>
+        <v>38461800</v>
       </c>
       <c r="J9" s="3">
-        <v>14662100</v>
+        <v>12689700</v>
       </c>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>10327200</v>
+        <v>10073200</v>
       </c>
       <c r="E10" s="3">
-        <v>9318900</v>
+        <v>8907500</v>
       </c>
       <c r="F10" s="3">
-        <v>8465500</v>
+        <v>8091800</v>
       </c>
       <c r="G10" s="3">
-        <v>8450300</v>
+        <v>8077200</v>
       </c>
       <c r="H10" s="3">
-        <v>9351700</v>
+        <v>8938900</v>
       </c>
       <c r="I10" s="3">
-        <v>-10377700</v>
+        <v>-9919500</v>
       </c>
       <c r="J10" s="3">
-        <v>7728400</v>
+        <v>8712300</v>
       </c>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -802,7 +835,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -829,7 +862,7 @@
       </c>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -856,39 +889,39 @@
       </c>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2312400</v>
+        <v>2210300</v>
       </c>
       <c r="E14" s="3">
-        <v>169000</v>
+        <v>161600</v>
       </c>
       <c r="F14" s="3">
-        <v>164300</v>
+        <v>157100</v>
       </c>
       <c r="G14" s="3">
-        <v>-813500</v>
+        <v>-777500</v>
       </c>
       <c r="H14" s="3">
-        <v>405000</v>
+        <v>387100</v>
       </c>
       <c r="I14" s="3">
-        <v>473000</v>
+        <v>452200</v>
       </c>
       <c r="J14" s="3">
-        <v>50500</v>
+        <v>48200</v>
       </c>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>8</v>
+      <c r="D15" s="3">
+        <v>3186500</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>8</v>
@@ -903,14 +936,14 @@
         <v>8</v>
       </c>
       <c r="I15" s="3">
-        <v>78600</v>
+        <v>75200</v>
       </c>
       <c r="J15" s="3">
-        <v>61000</v>
+        <v>1383400</v>
       </c>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -920,61 +953,61 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>30810200</v>
+        <v>26844700</v>
       </c>
       <c r="E17" s="3">
-        <v>27863900</v>
+        <v>26633800</v>
       </c>
       <c r="F17" s="3">
-        <v>28881600</v>
+        <v>27606600</v>
       </c>
       <c r="G17" s="3">
-        <v>28374500</v>
+        <v>27121900</v>
       </c>
       <c r="H17" s="3">
-        <v>30233800</v>
+        <v>28899100</v>
       </c>
       <c r="I17" s="3">
-        <v>30718600</v>
+        <v>29362500</v>
       </c>
       <c r="J17" s="3">
-        <v>22359900</v>
+        <v>21372800</v>
       </c>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-544600</v>
+        <v>2177800</v>
       </c>
       <c r="E18" s="3">
-        <v>1300600</v>
+        <v>1243200</v>
       </c>
       <c r="F18" s="3">
-        <v>1274800</v>
+        <v>1218500</v>
       </c>
       <c r="G18" s="3">
-        <v>888600</v>
+        <v>849300</v>
       </c>
       <c r="H18" s="3">
-        <v>-266500</v>
+        <v>-254700</v>
       </c>
       <c r="I18" s="3">
-        <v>-858100</v>
+        <v>-820200</v>
       </c>
       <c r="J18" s="3">
-        <v>30500</v>
+        <v>29200</v>
       </c>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -987,142 +1020,142 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>153800</v>
+        <v>-1826600</v>
       </c>
       <c r="E20" s="3">
-        <v>-65700</v>
+        <v>-62800</v>
       </c>
       <c r="F20" s="3">
-        <v>-746500</v>
+        <v>-713600</v>
       </c>
       <c r="G20" s="3">
-        <v>-475400</v>
+        <v>-454400</v>
       </c>
       <c r="H20" s="3">
-        <v>64600</v>
+        <v>61700</v>
       </c>
       <c r="I20" s="3">
-        <v>156100</v>
+        <v>149200</v>
       </c>
       <c r="J20" s="3">
-        <v>-596300</v>
+        <v>-570000</v>
       </c>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1695200</v>
+        <v>2348600</v>
       </c>
       <c r="E21" s="3">
-        <v>3190600</v>
+        <v>3052900</v>
       </c>
       <c r="F21" s="3">
-        <v>2445200</v>
+        <v>2340400</v>
       </c>
       <c r="G21" s="3">
-        <v>2439400</v>
+        <v>2335000</v>
       </c>
       <c r="H21" s="3">
-        <v>1836100</v>
+        <v>1758400</v>
       </c>
       <c r="I21" s="3">
-        <v>1351300</v>
-      </c>
-      <c r="J21" s="3">
-        <v>956500</v>
+        <v>1295000</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>216000</v>
+        <v>206400</v>
       </c>
       <c r="E22" s="3">
-        <v>268800</v>
+        <v>256900</v>
       </c>
       <c r="F22" s="3">
-        <v>333400</v>
+        <v>318600</v>
       </c>
       <c r="G22" s="3">
-        <v>387400</v>
+        <v>370300</v>
       </c>
       <c r="H22" s="3">
-        <v>417900</v>
+        <v>399400</v>
       </c>
       <c r="I22" s="3">
-        <v>401400</v>
+        <v>383700</v>
       </c>
       <c r="J22" s="3">
-        <v>22300</v>
+        <v>21300</v>
       </c>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-606900</v>
+        <v>144700</v>
       </c>
       <c r="E23" s="3">
-        <v>966000</v>
+        <v>923400</v>
       </c>
       <c r="F23" s="3">
-        <v>194900</v>
+        <v>186300</v>
       </c>
       <c r="G23" s="3">
-        <v>25800</v>
+        <v>24700</v>
       </c>
       <c r="H23" s="3">
-        <v>-619800</v>
+        <v>-592400</v>
       </c>
       <c r="I23" s="3">
-        <v>-1103400</v>
+        <v>-1054700</v>
       </c>
       <c r="J23" s="3">
-        <v>-588100</v>
+        <v>-562100</v>
       </c>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-268800</v>
+        <v>-23600</v>
       </c>
       <c r="E24" s="3">
-        <v>345100</v>
+        <v>329900</v>
       </c>
       <c r="F24" s="3">
-        <v>35200</v>
+        <v>33700</v>
       </c>
       <c r="G24" s="3">
-        <v>228900</v>
+        <v>218800</v>
       </c>
       <c r="H24" s="3">
-        <v>1123300</v>
+        <v>1073700</v>
       </c>
       <c r="I24" s="3">
-        <v>20000</v>
+        <v>19100</v>
       </c>
       <c r="J24" s="3">
-        <v>-88000</v>
+        <v>-84100</v>
       </c>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1149,61 +1182,61 @@
       </c>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-338100</v>
+        <v>168300</v>
       </c>
       <c r="E26" s="3">
-        <v>620900</v>
+        <v>593500</v>
       </c>
       <c r="F26" s="3">
-        <v>159600</v>
+        <v>152600</v>
       </c>
       <c r="G26" s="3">
-        <v>-203100</v>
+        <v>-194100</v>
       </c>
       <c r="H26" s="3">
-        <v>-1743100</v>
+        <v>-1666200</v>
       </c>
       <c r="I26" s="3">
-        <v>-1123300</v>
+        <v>-1073700</v>
       </c>
       <c r="J26" s="3">
-        <v>-500000</v>
+        <v>-478000</v>
       </c>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-312200</v>
+        <v>163800</v>
       </c>
       <c r="E27" s="3">
-        <v>612700</v>
+        <v>585700</v>
       </c>
       <c r="F27" s="3">
-        <v>86900</v>
+        <v>83000</v>
       </c>
       <c r="G27" s="3">
-        <v>-259400</v>
+        <v>-248000</v>
       </c>
       <c r="H27" s="3">
-        <v>-2001300</v>
+        <v>-1913000</v>
       </c>
       <c r="I27" s="3">
-        <v>-1206700</v>
+        <v>-1153400</v>
       </c>
       <c r="J27" s="3">
-        <v>-518800</v>
+        <v>-495900</v>
       </c>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1230,34 +1263,34 @@
       </c>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-9400</v>
+        <v>-9000</v>
       </c>
       <c r="E29" s="3">
-        <v>316900</v>
+        <v>302900</v>
       </c>
       <c r="F29" s="3">
-        <v>30500</v>
+        <v>29200</v>
       </c>
       <c r="G29" s="3">
-        <v>-4700</v>
+        <v>-4500</v>
       </c>
       <c r="H29" s="3">
-        <v>-143200</v>
+        <v>-136900</v>
       </c>
       <c r="I29" s="3">
-        <v>-231200</v>
+        <v>-221000</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1284,7 +1317,7 @@
       </c>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1311,61 +1344,61 @@
       </c>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-153800</v>
+        <v>1826600</v>
       </c>
       <c r="E32" s="3">
-        <v>65700</v>
+        <v>62800</v>
       </c>
       <c r="F32" s="3">
-        <v>746500</v>
+        <v>713600</v>
       </c>
       <c r="G32" s="3">
-        <v>475400</v>
+        <v>454400</v>
       </c>
       <c r="H32" s="3">
-        <v>-64600</v>
+        <v>-61700</v>
       </c>
       <c r="I32" s="3">
-        <v>-156100</v>
+        <v>-149200</v>
       </c>
       <c r="J32" s="3">
-        <v>596300</v>
+        <v>570000</v>
       </c>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-321600</v>
+        <v>154800</v>
       </c>
       <c r="E33" s="3">
-        <v>929700</v>
+        <v>888600</v>
       </c>
       <c r="F33" s="3">
-        <v>117400</v>
+        <v>112200</v>
       </c>
       <c r="G33" s="3">
-        <v>-264100</v>
+        <v>-252400</v>
       </c>
       <c r="H33" s="3">
-        <v>-2144600</v>
+        <v>-2049900</v>
       </c>
       <c r="I33" s="3">
-        <v>-1437900</v>
+        <v>-1374400</v>
       </c>
       <c r="J33" s="3">
-        <v>-518800</v>
+        <v>-495900</v>
       </c>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1392,39 +1425,39 @@
       </c>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-321600</v>
+        <v>154800</v>
       </c>
       <c r="E35" s="3">
-        <v>929700</v>
+        <v>888600</v>
       </c>
       <c r="F35" s="3">
-        <v>117400</v>
+        <v>112200</v>
       </c>
       <c r="G35" s="3">
-        <v>-264100</v>
+        <v>-252400</v>
       </c>
       <c r="H35" s="3">
-        <v>-2144600</v>
+        <v>-2049900</v>
       </c>
       <c r="I35" s="3">
-        <v>-1437900</v>
+        <v>-1374400</v>
       </c>
       <c r="J35" s="3">
-        <v>-518800</v>
+        <v>-495900</v>
       </c>
       <c r="K35" s="3"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1451,7 +1484,7 @@
       </c>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1464,7 +1497,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1477,250 +1510,250 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>10971600</v>
+        <v>10486100</v>
       </c>
       <c r="E41" s="3">
-        <v>4622500</v>
+        <v>4418400</v>
       </c>
       <c r="F41" s="3">
-        <v>3643500</v>
+        <v>3482700</v>
       </c>
       <c r="G41" s="3">
-        <v>7416100</v>
+        <v>7088700</v>
       </c>
       <c r="H41" s="3">
-        <v>4324300</v>
+        <v>4133400</v>
       </c>
       <c r="I41" s="3">
-        <v>8028900</v>
+        <v>7674400</v>
       </c>
       <c r="J41" s="3">
-        <v>4845500</v>
+        <v>4631600</v>
       </c>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>494200</v>
+        <v>472400</v>
       </c>
       <c r="E42" s="3">
-        <v>152600</v>
+        <v>145900</v>
       </c>
       <c r="F42" s="3">
-        <v>1135100</v>
+        <v>1085000</v>
       </c>
       <c r="G42" s="3">
-        <v>923800</v>
+        <v>883000</v>
       </c>
       <c r="H42" s="3">
-        <v>1210200</v>
+        <v>1156800</v>
       </c>
       <c r="I42" s="3">
-        <v>1095200</v>
+        <v>1046800</v>
       </c>
       <c r="J42" s="3">
-        <v>881500</v>
+        <v>842600</v>
       </c>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5566200</v>
+        <v>5320500</v>
       </c>
       <c r="E43" s="3">
-        <v>2654000</v>
+        <v>2536800</v>
       </c>
       <c r="F43" s="3">
-        <v>2611700</v>
+        <v>2496400</v>
       </c>
       <c r="G43" s="3">
-        <v>4572000</v>
+        <v>4370200</v>
       </c>
       <c r="H43" s="3">
-        <v>2681000</v>
+        <v>2562600</v>
       </c>
       <c r="I43" s="3">
-        <v>4460500</v>
+        <v>4263600</v>
       </c>
       <c r="J43" s="3">
-        <v>4425300</v>
+        <v>4229900</v>
       </c>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1307600</v>
+        <v>1249900</v>
       </c>
       <c r="E44" s="3">
-        <v>664400</v>
+        <v>635000</v>
       </c>
       <c r="F44" s="3">
-        <v>624500</v>
+        <v>596900</v>
       </c>
       <c r="G44" s="3">
-        <v>1263000</v>
+        <v>1207300</v>
       </c>
       <c r="H44" s="3">
-        <v>599800</v>
+        <v>573300</v>
       </c>
       <c r="I44" s="3">
-        <v>1223100</v>
+        <v>1169100</v>
       </c>
       <c r="J44" s="3">
-        <v>1373400</v>
+        <v>1312700</v>
       </c>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2422700</v>
+        <v>2316900</v>
       </c>
       <c r="E45" s="3">
-        <v>835800</v>
+        <v>798900</v>
       </c>
       <c r="F45" s="3">
-        <v>841600</v>
+        <v>804500</v>
       </c>
       <c r="G45" s="3">
-        <v>1744300</v>
+        <v>1667300</v>
       </c>
       <c r="H45" s="3">
-        <v>987200</v>
+        <v>943600</v>
       </c>
       <c r="I45" s="3">
-        <v>1868700</v>
+        <v>1786200</v>
       </c>
       <c r="J45" s="3">
-        <v>2122200</v>
+        <v>2028600</v>
       </c>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10632400</v>
+        <v>10163000</v>
       </c>
       <c r="E46" s="3">
-        <v>8929200</v>
+        <v>8535000</v>
       </c>
       <c r="F46" s="3">
-        <v>8856400</v>
+        <v>8465400</v>
       </c>
       <c r="G46" s="3">
-        <v>8423300</v>
+        <v>8051400</v>
       </c>
       <c r="H46" s="3">
-        <v>9316500</v>
+        <v>8905200</v>
       </c>
       <c r="I46" s="3">
-        <v>8896300</v>
+        <v>8503600</v>
       </c>
       <c r="J46" s="3">
-        <v>7521800</v>
+        <v>7189700</v>
       </c>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1849900</v>
+        <v>1768300</v>
       </c>
       <c r="E47" s="3">
-        <v>1643300</v>
+        <v>1570800</v>
       </c>
       <c r="F47" s="3">
-        <v>1579900</v>
+        <v>1510200</v>
       </c>
       <c r="G47" s="3">
-        <v>1929700</v>
+        <v>1844600</v>
       </c>
       <c r="H47" s="3">
-        <v>2512000</v>
+        <v>2401100</v>
       </c>
       <c r="I47" s="3">
-        <v>2401600</v>
+        <v>2295600</v>
       </c>
       <c r="J47" s="3">
-        <v>2860600</v>
+        <v>2734300</v>
       </c>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>32889000</v>
+        <v>37861600</v>
       </c>
       <c r="E48" s="3">
-        <v>12441200</v>
+        <v>11892000</v>
       </c>
       <c r="F48" s="3">
-        <v>12222900</v>
+        <v>11683300</v>
       </c>
       <c r="G48" s="3">
-        <v>24598400</v>
+        <v>23512400</v>
       </c>
       <c r="H48" s="3">
-        <v>13158400</v>
+        <v>12577500</v>
       </c>
       <c r="I48" s="3">
-        <v>28124500</v>
+        <v>26882900</v>
       </c>
       <c r="J48" s="3">
-        <v>7041700</v>
+        <v>6730800</v>
       </c>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>10023200</v>
+        <v>3002400</v>
       </c>
       <c r="E49" s="3">
-        <v>1507200</v>
+        <v>1440600</v>
       </c>
       <c r="F49" s="3">
-        <v>1484900</v>
+        <v>1419300</v>
       </c>
       <c r="G49" s="3">
-        <v>2939200</v>
+        <v>2809500</v>
       </c>
       <c r="H49" s="3">
-        <v>1329900</v>
+        <v>1271200</v>
       </c>
       <c r="I49" s="3">
-        <v>2568300</v>
+        <v>2454900</v>
       </c>
       <c r="J49" s="3">
-        <v>2317100</v>
+        <v>2214800</v>
       </c>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1747,7 +1780,7 @@
       </c>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1774,34 +1807,34 @@
       </c>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1710200</v>
+        <v>1629100</v>
       </c>
       <c r="E52" s="3">
-        <v>2396900</v>
+        <v>2291100</v>
       </c>
       <c r="F52" s="3">
-        <v>3246800</v>
+        <v>3103400</v>
       </c>
       <c r="G52" s="3">
-        <v>3444000</v>
+        <v>3291900</v>
       </c>
       <c r="H52" s="3">
-        <v>3522600</v>
+        <v>3367100</v>
       </c>
       <c r="I52" s="3">
-        <v>4719900</v>
+        <v>4511500</v>
       </c>
       <c r="J52" s="3">
-        <v>8267100</v>
+        <v>7902200</v>
       </c>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1828,34 +1861,34 @@
       </c>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>35398600</v>
+        <v>33618200</v>
       </c>
       <c r="E54" s="3">
-        <v>26917800</v>
+        <v>25729500</v>
       </c>
       <c r="F54" s="3">
-        <v>27390900</v>
+        <v>26181600</v>
       </c>
       <c r="G54" s="3">
-        <v>27280500</v>
+        <v>26076200</v>
       </c>
       <c r="H54" s="3">
-        <v>29839400</v>
+        <v>28522100</v>
       </c>
       <c r="I54" s="3">
-        <v>31364200</v>
+        <v>29979600</v>
       </c>
       <c r="J54" s="3">
-        <v>31241000</v>
+        <v>29861800</v>
       </c>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1868,7 +1901,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1881,169 +1914,169 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2776100</v>
+        <v>2653500</v>
       </c>
       <c r="E57" s="3">
-        <v>2769000</v>
+        <v>2646800</v>
       </c>
       <c r="F57" s="3">
-        <v>2811300</v>
+        <v>2687200</v>
       </c>
       <c r="G57" s="3">
-        <v>2868800</v>
+        <v>2742100</v>
       </c>
       <c r="H57" s="3">
-        <v>2780800</v>
+        <v>2658000</v>
       </c>
       <c r="I57" s="3">
-        <v>2604700</v>
+        <v>2489700</v>
       </c>
       <c r="J57" s="3">
-        <v>3050700</v>
+        <v>2916100</v>
       </c>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4318400</v>
+        <v>4127800</v>
       </c>
       <c r="E58" s="3">
-        <v>1099900</v>
+        <v>1051300</v>
       </c>
       <c r="F58" s="3">
-        <v>2259600</v>
+        <v>2159800</v>
       </c>
       <c r="G58" s="3">
-        <v>5486400</v>
+        <v>5244200</v>
       </c>
       <c r="H58" s="3">
-        <v>1936800</v>
+        <v>1851300</v>
       </c>
       <c r="I58" s="3">
-        <v>3536700</v>
+        <v>3380600</v>
       </c>
       <c r="J58" s="3">
-        <v>2981500</v>
+        <v>2849900</v>
       </c>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12370800</v>
+        <v>11767400</v>
       </c>
       <c r="E59" s="3">
-        <v>8034700</v>
+        <v>7680000</v>
       </c>
       <c r="F59" s="3">
-        <v>9013700</v>
+        <v>8615800</v>
       </c>
       <c r="G59" s="3">
-        <v>12562100</v>
+        <v>12007500</v>
       </c>
       <c r="H59" s="3">
-        <v>10763800</v>
+        <v>10288600</v>
       </c>
       <c r="I59" s="3">
-        <v>9980900</v>
+        <v>9540300</v>
       </c>
       <c r="J59" s="3">
-        <v>12200600</v>
+        <v>11662000</v>
       </c>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>14209000</v>
+        <v>13524500</v>
       </c>
       <c r="E60" s="3">
-        <v>11903600</v>
+        <v>11378100</v>
       </c>
       <c r="F60" s="3">
-        <v>14084500</v>
+        <v>13462800</v>
       </c>
       <c r="G60" s="3">
-        <v>13882700</v>
+        <v>13269800</v>
       </c>
       <c r="H60" s="3">
-        <v>12741700</v>
+        <v>12179200</v>
       </c>
       <c r="I60" s="3">
-        <v>11535000</v>
+        <v>11025800</v>
       </c>
       <c r="J60" s="3">
-        <v>10736800</v>
+        <v>10262800</v>
       </c>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>11822600</v>
+        <v>11061700</v>
       </c>
       <c r="E61" s="3">
-        <v>8722600</v>
+        <v>8337500</v>
       </c>
       <c r="F61" s="3">
-        <v>8287100</v>
+        <v>7921200</v>
       </c>
       <c r="G61" s="3">
-        <v>9383400</v>
+        <v>8969200</v>
       </c>
       <c r="H61" s="3">
-        <v>10090100</v>
+        <v>9644600</v>
       </c>
       <c r="I61" s="3">
-        <v>11227500</v>
+        <v>10731800</v>
       </c>
       <c r="J61" s="3">
-        <v>10831900</v>
+        <v>10353700</v>
       </c>
       <c r="K61" s="3"/>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6973600</v>
+        <v>6721800</v>
       </c>
       <c r="E62" s="3">
-        <v>4770400</v>
+        <v>4559800</v>
       </c>
       <c r="F62" s="3">
-        <v>4698800</v>
+        <v>4491300</v>
       </c>
       <c r="G62" s="3">
-        <v>5410100</v>
+        <v>5171300</v>
       </c>
       <c r="H62" s="3">
-        <v>4782100</v>
+        <v>4571000</v>
       </c>
       <c r="I62" s="3">
-        <v>4820800</v>
+        <v>4608000</v>
       </c>
       <c r="J62" s="3">
-        <v>4091900</v>
+        <v>3911300</v>
       </c>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2070,7 +2103,7 @@
       </c>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2097,7 +2130,7 @@
       </c>
       <c r="K64" s="3"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2124,34 +2157,34 @@
       </c>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>32595500</v>
+        <v>30916400</v>
       </c>
       <c r="E66" s="3">
-        <v>25410600</v>
+        <v>24288800</v>
       </c>
       <c r="F66" s="3">
-        <v>27126700</v>
+        <v>25929200</v>
       </c>
       <c r="G66" s="3">
-        <v>28092800</v>
+        <v>26852600</v>
       </c>
       <c r="H66" s="3">
-        <v>27204200</v>
+        <v>26003200</v>
       </c>
       <c r="I66" s="3">
-        <v>27151400</v>
+        <v>25952800</v>
       </c>
       <c r="J66" s="3">
-        <v>25422400</v>
+        <v>24300100</v>
       </c>
       <c r="K66" s="3"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2164,7 +2197,7 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2191,7 +2224,7 @@
       </c>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2218,7 +2251,7 @@
       </c>
       <c r="K69" s="3"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2245,7 +2278,7 @@
       </c>
       <c r="K70" s="3"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2272,34 +2305,34 @@
       </c>
       <c r="K71" s="3"/>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-4947600</v>
+        <v>-4811100</v>
       </c>
       <c r="E72" s="3">
-        <v>365100</v>
+        <v>348900</v>
       </c>
       <c r="F72" s="3">
-        <v>-532900</v>
+        <v>-509400</v>
       </c>
       <c r="G72" s="3">
-        <v>-5229300</v>
+        <v>-4998500</v>
       </c>
       <c r="H72" s="3">
-        <v>-1104600</v>
+        <v>-1055800</v>
       </c>
       <c r="I72" s="3">
-        <v>473000</v>
+        <v>452200</v>
       </c>
       <c r="J72" s="3">
-        <v>2083500</v>
+        <v>1991500</v>
       </c>
       <c r="K72" s="3"/>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2326,7 +2359,7 @@
       </c>
       <c r="K73" s="3"/>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2353,7 +2386,7 @@
       </c>
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2380,34 +2413,34 @@
       </c>
       <c r="K75" s="3"/>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2803100</v>
+        <v>2701800</v>
       </c>
       <c r="E76" s="3">
-        <v>1507200</v>
+        <v>1440600</v>
       </c>
       <c r="F76" s="3">
-        <v>264100</v>
+        <v>252400</v>
       </c>
       <c r="G76" s="3">
-        <v>-812300</v>
+        <v>-776400</v>
       </c>
       <c r="H76" s="3">
-        <v>2635200</v>
+        <v>2518900</v>
       </c>
       <c r="I76" s="3">
-        <v>4212800</v>
+        <v>4026800</v>
       </c>
       <c r="J76" s="3">
-        <v>5818600</v>
+        <v>5561700</v>
       </c>
       <c r="K76" s="3"/>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2434,12 +2467,12 @@
       </c>
       <c r="K77" s="3"/>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2466,34 +2499,34 @@
       </c>
       <c r="K80" s="2"/>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-321600</v>
+        <v>154800</v>
       </c>
       <c r="E81" s="3">
-        <v>929700</v>
+        <v>888600</v>
       </c>
       <c r="F81" s="3">
-        <v>117400</v>
+        <v>112200</v>
       </c>
       <c r="G81" s="3">
-        <v>-264100</v>
+        <v>-252400</v>
       </c>
       <c r="H81" s="3">
-        <v>-2144600</v>
+        <v>-2049900</v>
       </c>
       <c r="I81" s="3">
-        <v>-1437900</v>
+        <v>-1374400</v>
       </c>
       <c r="J81" s="3">
-        <v>-518800</v>
+        <v>-495900</v>
       </c>
       <c r="K81" s="3"/>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2506,34 +2539,34 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2084700</v>
+        <v>1992700</v>
       </c>
       <c r="E83" s="3">
-        <v>1954400</v>
+        <v>1868100</v>
       </c>
       <c r="F83" s="3">
-        <v>1915700</v>
+        <v>1831100</v>
       </c>
       <c r="G83" s="3">
-        <v>2024800</v>
+        <v>1935400</v>
       </c>
       <c r="H83" s="3">
-        <v>2036600</v>
+        <v>1946700</v>
       </c>
       <c r="I83" s="3">
-        <v>2051800</v>
-      </c>
-      <c r="J83" s="3">
-        <v>1521300</v>
+        <v>1961200</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3"/>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2560,7 +2593,7 @@
       </c>
       <c r="K84" s="3"/>
     </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2587,7 +2620,7 @@
       </c>
       <c r="K85" s="3"/>
     </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2614,7 +2647,7 @@
       </c>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2641,7 +2674,7 @@
       </c>
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2668,34 +2701,34 @@
       </c>
       <c r="K88" s="3"/>
     </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3401700</v>
+        <v>3251500</v>
       </c>
       <c r="E89" s="3">
-        <v>2628200</v>
+        <v>2512100</v>
       </c>
       <c r="F89" s="3">
-        <v>2230200</v>
+        <v>2131800</v>
       </c>
       <c r="G89" s="3">
-        <v>1194900</v>
+        <v>1142200</v>
       </c>
       <c r="H89" s="3">
-        <v>1736100</v>
+        <v>1659400</v>
       </c>
       <c r="I89" s="3">
-        <v>998900</v>
+        <v>954800</v>
       </c>
       <c r="J89" s="3">
-        <v>655000</v>
+        <v>626100</v>
       </c>
       <c r="K89" s="3"/>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2708,34 +2741,34 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2724400</v>
+        <v>-2325900</v>
       </c>
       <c r="E91" s="3">
-        <v>-2494300</v>
+        <v>-2148600</v>
       </c>
       <c r="F91" s="3">
-        <v>-3928700</v>
+        <v>-3560100</v>
       </c>
       <c r="G91" s="3">
-        <v>-1679700</v>
+        <v>-1605600</v>
       </c>
       <c r="H91" s="3">
-        <v>-1392100</v>
+        <v>-1330700</v>
       </c>
       <c r="I91" s="3">
-        <v>-1727800</v>
+        <v>-1651600</v>
       </c>
       <c r="J91" s="3">
-        <v>-2197400</v>
+        <v>-2100400</v>
       </c>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2762,7 +2795,7 @@
       </c>
       <c r="K92" s="3"/>
     </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2789,34 +2822,34 @@
       </c>
       <c r="K93" s="3"/>
     </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2882900</v>
+        <v>-2755600</v>
       </c>
       <c r="E94" s="3">
-        <v>-853400</v>
+        <v>-815700</v>
       </c>
       <c r="F94" s="3">
-        <v>-1364000</v>
+        <v>-1303800</v>
       </c>
       <c r="G94" s="3">
-        <v>-664400</v>
+        <v>-635000</v>
       </c>
       <c r="H94" s="3">
-        <v>-1084600</v>
+        <v>-1036700</v>
       </c>
       <c r="I94" s="3">
-        <v>-287600</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-1644500</v>
+        <v>-274900</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3"/>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2829,34 +2862,34 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-44600</v>
+        <v>-42600</v>
       </c>
       <c r="E96" s="3">
-        <v>-44600</v>
+        <v>-42600</v>
       </c>
       <c r="F96" s="3">
-        <v>-22300</v>
+        <v>-21300</v>
       </c>
       <c r="G96" s="3">
-        <v>-3500</v>
+        <v>-3400</v>
       </c>
       <c r="H96" s="3">
-        <v>-4700</v>
+        <v>-4500</v>
       </c>
       <c r="I96" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="J96" s="3">
-        <v>-3500</v>
+        <v>-3400</v>
       </c>
       <c r="K96" s="3"/>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2883,7 +2916,7 @@
       </c>
       <c r="K97" s="3"/>
     </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2910,7 +2943,7 @@
       </c>
       <c r="K98" s="3"/>
     </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2937,84 +2970,84 @@
       </c>
       <c r="K99" s="3"/>
     </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>381500</v>
+        <v>364600</v>
       </c>
       <c r="E100" s="3">
-        <v>-782900</v>
+        <v>-748400</v>
       </c>
       <c r="F100" s="3">
-        <v>-591600</v>
+        <v>-565500</v>
       </c>
       <c r="G100" s="3">
-        <v>-1153900</v>
+        <v>-1102900</v>
       </c>
       <c r="H100" s="3">
-        <v>-185500</v>
+        <v>-177300</v>
       </c>
       <c r="I100" s="3">
-        <v>509400</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-726600</v>
+        <v>486900</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3"/>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-38700</v>
+        <v>-37000</v>
       </c>
       <c r="E101" s="3">
-        <v>-15300</v>
+        <v>-14600</v>
       </c>
       <c r="F101" s="3">
-        <v>-50500</v>
+        <v>-48200</v>
       </c>
       <c r="G101" s="3">
-        <v>-90400</v>
+        <v>-86400</v>
       </c>
       <c r="H101" s="3">
-        <v>-42300</v>
+        <v>-40400</v>
       </c>
       <c r="I101" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+        <v>-3400</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3"/>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>861600</v>
+        <v>823500</v>
       </c>
       <c r="E102" s="3">
-        <v>976600</v>
+        <v>933500</v>
       </c>
       <c r="F102" s="3">
-        <v>224200</v>
+        <v>214300</v>
       </c>
       <c r="G102" s="3">
-        <v>-713700</v>
+        <v>-682200</v>
       </c>
       <c r="H102" s="3">
-        <v>423700</v>
+        <v>405000</v>
       </c>
       <c r="I102" s="3">
-        <v>1217200</v>
+        <v>1163500</v>
       </c>
       <c r="J102" s="3">
-        <v>-1716100</v>
+        <v>-1640300</v>
       </c>
       <c r="K102" s="3"/>
     </row>

--- a/Financials/Yearly/AFLYY_YR_FIN.xlsx
+++ b/Financials/Yearly/AFLYY_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29732DF-9953-471E-AA44-B6785B4B3893}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="AFLYY" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>AFLYY</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,140 +654,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
         <v>43100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42735</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42369</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42004</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41639</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41274</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40908</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>29022500</v>
+        <v>29113500</v>
       </c>
       <c r="E8" s="3">
-        <v>27877000</v>
+        <v>28402000</v>
       </c>
       <c r="F8" s="3">
-        <v>28825000</v>
+        <v>27280900</v>
       </c>
       <c r="G8" s="3">
-        <v>27971200</v>
+        <v>28208700</v>
       </c>
       <c r="H8" s="3">
-        <v>28644400</v>
+        <v>27373100</v>
       </c>
       <c r="I8" s="3">
-        <v>28542300</v>
+        <v>28031900</v>
       </c>
       <c r="J8" s="3">
+        <v>27932000</v>
+      </c>
+      <c r="K8" s="3">
         <v>21402000</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>18949300</v>
+        <v>14588000</v>
       </c>
       <c r="E9" s="3">
-        <v>18969500</v>
+        <v>14742800</v>
       </c>
       <c r="F9" s="3">
-        <v>20733300</v>
+        <v>15845200</v>
       </c>
       <c r="G9" s="3">
-        <v>19894000</v>
+        <v>17579000</v>
       </c>
       <c r="H9" s="3">
-        <v>19705500</v>
+        <v>16768700</v>
       </c>
       <c r="I9" s="3">
-        <v>38461800</v>
+        <v>16629200</v>
       </c>
       <c r="J9" s="3">
+        <v>34958100</v>
+      </c>
+      <c r="K9" s="3">
         <v>12689700</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>10073200</v>
+        <v>14525400</v>
       </c>
       <c r="E10" s="3">
-        <v>8907500</v>
+        <v>13659100</v>
       </c>
       <c r="F10" s="3">
-        <v>8091800</v>
+        <v>11435700</v>
       </c>
       <c r="G10" s="3">
-        <v>8077200</v>
+        <v>10629700</v>
       </c>
       <c r="H10" s="3">
-        <v>8938900</v>
+        <v>10604500</v>
       </c>
       <c r="I10" s="3">
-        <v>-9919500</v>
+        <v>11402700</v>
       </c>
       <c r="J10" s="3">
+        <v>-7026100</v>
+      </c>
+      <c r="K10" s="3">
         <v>8712300</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -834,8 +811,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -860,9 +838,12 @@
       <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -887,63 +868,72 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2210300</v>
+        <v>17600</v>
       </c>
       <c r="E14" s="3">
-        <v>161600</v>
+        <v>2113700</v>
       </c>
       <c r="F14" s="3">
-        <v>157100</v>
+        <v>158100</v>
       </c>
       <c r="G14" s="3">
-        <v>-777500</v>
+        <v>153700</v>
       </c>
       <c r="H14" s="3">
-        <v>387100</v>
+        <v>-760900</v>
       </c>
       <c r="I14" s="3">
-        <v>452200</v>
+        <v>378800</v>
       </c>
       <c r="J14" s="3">
+        <v>442500</v>
+      </c>
+      <c r="K14" s="3">
         <v>48200</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3186500</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>8</v>
+        <v>3053500</v>
+      </c>
+      <c r="E15" s="3">
+        <v>3026100</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1725000</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1727200</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1744700</v>
       </c>
       <c r="I15" s="3">
-        <v>75200</v>
+        <v>1719500</v>
       </c>
       <c r="J15" s="3">
+        <v>1730400</v>
+      </c>
+      <c r="K15" s="3">
         <v>1383400</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -952,62 +942,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>26844700</v>
+        <v>27664100</v>
       </c>
       <c r="E17" s="3">
-        <v>26633800</v>
+        <v>28384400</v>
       </c>
       <c r="F17" s="3">
-        <v>27606600</v>
+        <v>26064300</v>
       </c>
       <c r="G17" s="3">
-        <v>27121900</v>
+        <v>27016300</v>
       </c>
       <c r="H17" s="3">
-        <v>28899100</v>
+        <v>26542000</v>
       </c>
       <c r="I17" s="3">
-        <v>29362500</v>
+        <v>28281200</v>
       </c>
       <c r="J17" s="3">
+        <v>28734700</v>
+      </c>
+      <c r="K17" s="3">
         <v>21372800</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2177800</v>
+        <v>1449400</v>
       </c>
       <c r="E18" s="3">
-        <v>1243200</v>
+        <v>17600</v>
       </c>
       <c r="F18" s="3">
-        <v>1218500</v>
+        <v>1216600</v>
       </c>
       <c r="G18" s="3">
-        <v>849300</v>
+        <v>1192400</v>
       </c>
       <c r="H18" s="3">
-        <v>-254700</v>
+        <v>831200</v>
       </c>
       <c r="I18" s="3">
-        <v>-820200</v>
+        <v>-249200</v>
       </c>
       <c r="J18" s="3">
+        <v>-802600</v>
+      </c>
+      <c r="K18" s="3">
         <v>29200</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1019,143 +1016,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1826600</v>
+        <v>-288800</v>
       </c>
       <c r="E20" s="3">
-        <v>-62800</v>
+        <v>677500</v>
       </c>
       <c r="F20" s="3">
-        <v>-713600</v>
+        <v>-61500</v>
       </c>
       <c r="G20" s="3">
-        <v>-454400</v>
+        <v>-698300</v>
       </c>
       <c r="H20" s="3">
-        <v>61700</v>
+        <v>-444700</v>
       </c>
       <c r="I20" s="3">
-        <v>149200</v>
+        <v>60400</v>
       </c>
       <c r="J20" s="3">
+        <v>146000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-570000</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2348600</v>
+        <v>4333200</v>
       </c>
       <c r="E21" s="3">
-        <v>3052900</v>
+        <v>3818200</v>
       </c>
       <c r="F21" s="3">
-        <v>2340400</v>
+        <v>2986100</v>
       </c>
       <c r="G21" s="3">
-        <v>2335000</v>
+        <v>2288800</v>
       </c>
       <c r="H21" s="3">
-        <v>1758400</v>
+        <v>2283500</v>
       </c>
       <c r="I21" s="3">
-        <v>1295000</v>
-      </c>
-      <c r="J21" s="3" t="s">
+        <v>1719100</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1265700</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>206400</v>
+        <v>476500</v>
       </c>
       <c r="E22" s="3">
-        <v>256900</v>
+        <v>553400</v>
       </c>
       <c r="F22" s="3">
-        <v>318600</v>
+        <v>251400</v>
       </c>
       <c r="G22" s="3">
-        <v>370300</v>
+        <v>311800</v>
       </c>
       <c r="H22" s="3">
-        <v>399400</v>
+        <v>362300</v>
       </c>
       <c r="I22" s="3">
-        <v>383700</v>
+        <v>390900</v>
       </c>
       <c r="J22" s="3">
+        <v>375500</v>
+      </c>
+      <c r="K22" s="3">
         <v>21300</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>144700</v>
+        <v>684100</v>
       </c>
       <c r="E23" s="3">
-        <v>923400</v>
+        <v>141600</v>
       </c>
       <c r="F23" s="3">
-        <v>186300</v>
+        <v>903700</v>
       </c>
       <c r="G23" s="3">
-        <v>24700</v>
+        <v>182300</v>
       </c>
       <c r="H23" s="3">
-        <v>-592400</v>
+        <v>24200</v>
       </c>
       <c r="I23" s="3">
-        <v>-1054700</v>
+        <v>-579700</v>
       </c>
       <c r="J23" s="3">
+        <v>-1032100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-562100</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-23600</v>
+        <v>249200</v>
       </c>
       <c r="E24" s="3">
-        <v>329900</v>
+        <v>-23100</v>
       </c>
       <c r="F24" s="3">
-        <v>33700</v>
+        <v>322800</v>
       </c>
       <c r="G24" s="3">
-        <v>218800</v>
+        <v>32900</v>
       </c>
       <c r="H24" s="3">
-        <v>1073700</v>
+        <v>214100</v>
       </c>
       <c r="I24" s="3">
-        <v>19100</v>
+        <v>1050800</v>
       </c>
       <c r="J24" s="3">
+        <v>18700</v>
+      </c>
+      <c r="K24" s="3">
         <v>-84100</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1180,63 +1193,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>168300</v>
+        <v>434800</v>
       </c>
       <c r="E26" s="3">
-        <v>593500</v>
+        <v>164700</v>
       </c>
       <c r="F26" s="3">
-        <v>152600</v>
+        <v>580800</v>
       </c>
       <c r="G26" s="3">
-        <v>-194100</v>
+        <v>149300</v>
       </c>
       <c r="H26" s="3">
-        <v>-1666200</v>
+        <v>-190000</v>
       </c>
       <c r="I26" s="3">
-        <v>-1073700</v>
+        <v>-1630500</v>
       </c>
       <c r="J26" s="3">
+        <v>-1050800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-478000</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>163800</v>
+        <v>408500</v>
       </c>
       <c r="E27" s="3">
-        <v>585700</v>
+        <v>160300</v>
       </c>
       <c r="F27" s="3">
-        <v>83000</v>
+        <v>573200</v>
       </c>
       <c r="G27" s="3">
-        <v>-248000</v>
+        <v>81300</v>
       </c>
       <c r="H27" s="3">
-        <v>-1913000</v>
+        <v>-242700</v>
       </c>
       <c r="I27" s="3">
-        <v>-1153400</v>
+        <v>-1872100</v>
       </c>
       <c r="J27" s="3">
+        <v>-1128700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-495900</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1261,36 +1283,42 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-9000</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>302900</v>
+        <v>-8800</v>
       </c>
       <c r="F29" s="3">
-        <v>29200</v>
+        <v>296500</v>
       </c>
       <c r="G29" s="3">
-        <v>-4500</v>
+        <v>28500</v>
       </c>
       <c r="H29" s="3">
-        <v>-136900</v>
+        <v>-4400</v>
       </c>
       <c r="I29" s="3">
-        <v>-221000</v>
-      </c>
-      <c r="J29" s="3" t="s">
+        <v>-134000</v>
+      </c>
+      <c r="J29" s="3">
+        <v>-216300</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1315,9 +1343,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1342,63 +1373,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1826600</v>
+        <v>288800</v>
       </c>
       <c r="E32" s="3">
-        <v>62800</v>
+        <v>-677500</v>
       </c>
       <c r="F32" s="3">
-        <v>713600</v>
+        <v>61500</v>
       </c>
       <c r="G32" s="3">
-        <v>454400</v>
+        <v>698300</v>
       </c>
       <c r="H32" s="3">
-        <v>-61700</v>
+        <v>444700</v>
       </c>
       <c r="I32" s="3">
-        <v>-149200</v>
+        <v>-60400</v>
       </c>
       <c r="J32" s="3">
+        <v>-146000</v>
+      </c>
+      <c r="K32" s="3">
         <v>570000</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>154800</v>
+        <v>408500</v>
       </c>
       <c r="E33" s="3">
-        <v>888600</v>
+        <v>151500</v>
       </c>
       <c r="F33" s="3">
-        <v>112200</v>
+        <v>869600</v>
       </c>
       <c r="G33" s="3">
-        <v>-252400</v>
+        <v>109800</v>
       </c>
       <c r="H33" s="3">
-        <v>-2049900</v>
+        <v>-247100</v>
       </c>
       <c r="I33" s="3">
-        <v>-1374400</v>
+        <v>-2006000</v>
       </c>
       <c r="J33" s="3">
+        <v>-1345100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-495900</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1423,68 +1463,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>154800</v>
+        <v>408500</v>
       </c>
       <c r="E35" s="3">
-        <v>888600</v>
+        <v>151500</v>
       </c>
       <c r="F35" s="3">
-        <v>112200</v>
+        <v>869600</v>
       </c>
       <c r="G35" s="3">
-        <v>-252400</v>
+        <v>109800</v>
       </c>
       <c r="H35" s="3">
-        <v>-2049900</v>
+        <v>-247100</v>
       </c>
       <c r="I35" s="3">
-        <v>-1374400</v>
+        <v>-2006000</v>
       </c>
       <c r="J35" s="3">
+        <v>-1345100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-495900</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
         <v>43100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42735</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42369</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42004</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41639</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41274</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40908</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1496,8 +1545,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1509,251 +1559,279 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>10486100</v>
+        <v>3936300</v>
       </c>
       <c r="E41" s="3">
-        <v>4418400</v>
+        <v>10263000</v>
       </c>
       <c r="F41" s="3">
-        <v>3482700</v>
+        <v>4323900</v>
       </c>
       <c r="G41" s="3">
-        <v>7088700</v>
+        <v>3408200</v>
       </c>
       <c r="H41" s="3">
-        <v>4133400</v>
+        <v>6937200</v>
       </c>
       <c r="I41" s="3">
-        <v>7674400</v>
+        <v>4045000</v>
       </c>
       <c r="J41" s="3">
+        <v>7510300</v>
+      </c>
+      <c r="K41" s="3">
         <v>4631600</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>472400</v>
+        <v>356900</v>
       </c>
       <c r="E42" s="3">
-        <v>145900</v>
+        <v>462300</v>
       </c>
       <c r="F42" s="3">
-        <v>1085000</v>
+        <v>142700</v>
       </c>
       <c r="G42" s="3">
-        <v>883000</v>
+        <v>1061800</v>
       </c>
       <c r="H42" s="3">
-        <v>1156800</v>
+        <v>864100</v>
       </c>
       <c r="I42" s="3">
-        <v>1046800</v>
+        <v>1132000</v>
       </c>
       <c r="J42" s="3">
+        <v>1024400</v>
+      </c>
+      <c r="K42" s="3">
         <v>842600</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5320500</v>
+        <v>2955800</v>
       </c>
       <c r="E43" s="3">
-        <v>2536800</v>
+        <v>5239700</v>
       </c>
       <c r="F43" s="3">
-        <v>2496400</v>
+        <v>2482600</v>
       </c>
       <c r="G43" s="3">
-        <v>4370200</v>
+        <v>2443100</v>
       </c>
       <c r="H43" s="3">
-        <v>2562600</v>
+        <v>4276700</v>
       </c>
       <c r="I43" s="3">
-        <v>4263600</v>
+        <v>2507800</v>
       </c>
       <c r="J43" s="3">
+        <v>4172400</v>
+      </c>
+      <c r="K43" s="3">
         <v>4229900</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1249900</v>
+        <v>695000</v>
       </c>
       <c r="E44" s="3">
-        <v>635000</v>
+        <v>1223200</v>
       </c>
       <c r="F44" s="3">
-        <v>596900</v>
+        <v>621500</v>
       </c>
       <c r="G44" s="3">
-        <v>1207300</v>
+        <v>584100</v>
       </c>
       <c r="H44" s="3">
-        <v>573300</v>
+        <v>1181400</v>
       </c>
       <c r="I44" s="3">
-        <v>1169100</v>
+        <v>561100</v>
       </c>
       <c r="J44" s="3">
+        <v>1144100</v>
+      </c>
+      <c r="K44" s="3">
         <v>1312700</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2316900</v>
+        <v>616000</v>
       </c>
       <c r="E45" s="3">
-        <v>798900</v>
+        <v>2241000</v>
       </c>
       <c r="F45" s="3">
-        <v>804500</v>
+        <v>781800</v>
       </c>
       <c r="G45" s="3">
-        <v>1667300</v>
+        <v>787300</v>
       </c>
       <c r="H45" s="3">
-        <v>943600</v>
+        <v>1631600</v>
       </c>
       <c r="I45" s="3">
-        <v>1786200</v>
+        <v>923400</v>
       </c>
       <c r="J45" s="3">
+        <v>1748000</v>
+      </c>
+      <c r="K45" s="3">
         <v>2028600</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10163000</v>
+        <v>8560000</v>
       </c>
       <c r="E46" s="3">
-        <v>8535000</v>
+        <v>9945700</v>
       </c>
       <c r="F46" s="3">
-        <v>8465400</v>
+        <v>8352500</v>
       </c>
       <c r="G46" s="3">
-        <v>8051400</v>
+        <v>8284400</v>
       </c>
       <c r="H46" s="3">
-        <v>8905200</v>
+        <v>7879200</v>
       </c>
       <c r="I46" s="3">
-        <v>8503600</v>
+        <v>8714800</v>
       </c>
       <c r="J46" s="3">
+        <v>8321700</v>
+      </c>
+      <c r="K46" s="3">
         <v>7189700</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1768300</v>
+        <v>1986300</v>
       </c>
       <c r="E47" s="3">
-        <v>1570800</v>
+        <v>1730400</v>
       </c>
       <c r="F47" s="3">
-        <v>1510200</v>
+        <v>1537200</v>
       </c>
       <c r="G47" s="3">
-        <v>1844600</v>
+        <v>1477900</v>
       </c>
       <c r="H47" s="3">
-        <v>2401100</v>
+        <v>1805100</v>
       </c>
       <c r="I47" s="3">
-        <v>2295600</v>
+        <v>2349700</v>
       </c>
       <c r="J47" s="3">
+        <v>2246500</v>
+      </c>
+      <c r="K47" s="3">
         <v>2734300</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>37861600</v>
+        <v>18570500</v>
       </c>
       <c r="E48" s="3">
-        <v>11892000</v>
+        <v>44879700</v>
       </c>
       <c r="F48" s="3">
-        <v>11683300</v>
+        <v>11637700</v>
       </c>
       <c r="G48" s="3">
-        <v>23512400</v>
+        <v>11433500</v>
       </c>
       <c r="H48" s="3">
-        <v>12577500</v>
+        <v>23009700</v>
       </c>
       <c r="I48" s="3">
-        <v>26882900</v>
+        <v>12308600</v>
       </c>
       <c r="J48" s="3">
+        <v>26308100</v>
+      </c>
+      <c r="K48" s="3">
         <v>6730800</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3002400</v>
+        <v>1549300</v>
       </c>
       <c r="E49" s="3">
-        <v>1440600</v>
+        <v>2938200</v>
       </c>
       <c r="F49" s="3">
-        <v>1419300</v>
+        <v>1409800</v>
       </c>
       <c r="G49" s="3">
-        <v>2809500</v>
+        <v>1389000</v>
       </c>
       <c r="H49" s="3">
-        <v>1271200</v>
+        <v>2749400</v>
       </c>
       <c r="I49" s="3">
-        <v>2454900</v>
+        <v>1244000</v>
       </c>
       <c r="J49" s="3">
+        <v>2402400</v>
+      </c>
+      <c r="K49" s="3">
         <v>2214800</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1778,9 +1856,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1805,36 +1886,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1629100</v>
+        <v>1238500</v>
       </c>
       <c r="E52" s="3">
-        <v>2291100</v>
+        <v>1594300</v>
       </c>
       <c r="F52" s="3">
-        <v>3103400</v>
+        <v>2242100</v>
       </c>
       <c r="G52" s="3">
-        <v>3291900</v>
+        <v>3037100</v>
       </c>
       <c r="H52" s="3">
-        <v>3367100</v>
+        <v>3221500</v>
       </c>
       <c r="I52" s="3">
-        <v>4511500</v>
+        <v>3295100</v>
       </c>
       <c r="J52" s="3">
+        <v>4415100</v>
+      </c>
+      <c r="K52" s="3">
         <v>7902200</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1859,36 +1946,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>33618200</v>
+        <v>31904600</v>
       </c>
       <c r="E54" s="3">
-        <v>25729500</v>
+        <v>32899400</v>
       </c>
       <c r="F54" s="3">
-        <v>26181600</v>
+        <v>25179300</v>
       </c>
       <c r="G54" s="3">
-        <v>26076200</v>
+        <v>25621800</v>
       </c>
       <c r="H54" s="3">
-        <v>28522100</v>
+        <v>25518600</v>
       </c>
       <c r="I54" s="3">
-        <v>29979600</v>
+        <v>27912300</v>
       </c>
       <c r="J54" s="3">
+        <v>29338600</v>
+      </c>
+      <c r="K54" s="3">
         <v>29861800</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1900,8 +1993,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1913,170 +2007,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2653500</v>
+        <v>2701100</v>
       </c>
       <c r="E57" s="3">
-        <v>2646800</v>
+        <v>2596800</v>
       </c>
       <c r="F57" s="3">
-        <v>2687200</v>
+        <v>2590200</v>
       </c>
       <c r="G57" s="3">
-        <v>2742100</v>
+        <v>2629700</v>
       </c>
       <c r="H57" s="3">
-        <v>2658000</v>
+        <v>2683500</v>
       </c>
       <c r="I57" s="3">
-        <v>2489700</v>
+        <v>2601200</v>
       </c>
       <c r="J57" s="3">
+        <v>2436500</v>
+      </c>
+      <c r="K57" s="3">
         <v>2916100</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4127800</v>
+        <v>1927000</v>
       </c>
       <c r="E58" s="3">
-        <v>1051300</v>
+        <v>4040600</v>
       </c>
       <c r="F58" s="3">
-        <v>2159800</v>
+        <v>1028800</v>
       </c>
       <c r="G58" s="3">
-        <v>5244200</v>
+        <v>2113700</v>
       </c>
       <c r="H58" s="3">
-        <v>1851300</v>
+        <v>5132100</v>
       </c>
       <c r="I58" s="3">
-        <v>3380600</v>
+        <v>1811700</v>
       </c>
       <c r="J58" s="3">
+        <v>3308300</v>
+      </c>
+      <c r="K58" s="3">
         <v>2849900</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11767400</v>
+        <v>8896000</v>
       </c>
       <c r="E59" s="3">
-        <v>7680000</v>
+        <v>11673900</v>
       </c>
       <c r="F59" s="3">
-        <v>8615800</v>
+        <v>7515800</v>
       </c>
       <c r="G59" s="3">
-        <v>12007500</v>
+        <v>8431500</v>
       </c>
       <c r="H59" s="3">
-        <v>10288600</v>
+        <v>11750800</v>
       </c>
       <c r="I59" s="3">
-        <v>9540300</v>
+        <v>10068700</v>
       </c>
       <c r="J59" s="3">
+        <v>9336300</v>
+      </c>
+      <c r="K59" s="3">
         <v>11662000</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>13524500</v>
+        <v>13524100</v>
       </c>
       <c r="E60" s="3">
-        <v>11378100</v>
+        <v>13235300</v>
       </c>
       <c r="F60" s="3">
-        <v>13462800</v>
+        <v>11134800</v>
       </c>
       <c r="G60" s="3">
-        <v>13269800</v>
+        <v>13174900</v>
       </c>
       <c r="H60" s="3">
-        <v>12179200</v>
+        <v>12986000</v>
       </c>
       <c r="I60" s="3">
-        <v>11025800</v>
+        <v>11918800</v>
       </c>
       <c r="J60" s="3">
+        <v>10790000</v>
+      </c>
+      <c r="K60" s="3">
         <v>10262800</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>11061700</v>
+        <v>10187200</v>
       </c>
       <c r="E61" s="3">
-        <v>8337500</v>
+        <v>10825200</v>
       </c>
       <c r="F61" s="3">
-        <v>7921200</v>
+        <v>8159200</v>
       </c>
       <c r="G61" s="3">
-        <v>8969200</v>
+        <v>7751900</v>
       </c>
       <c r="H61" s="3">
-        <v>9644600</v>
+        <v>8777400</v>
       </c>
       <c r="I61" s="3">
-        <v>10731800</v>
+        <v>9438400</v>
       </c>
       <c r="J61" s="3">
+        <v>10502400</v>
+      </c>
+      <c r="K61" s="3">
         <v>10353700</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6721800</v>
+        <v>6145500</v>
       </c>
       <c r="E62" s="3">
-        <v>4559800</v>
+        <v>6578100</v>
       </c>
       <c r="F62" s="3">
-        <v>4491300</v>
+        <v>4462300</v>
       </c>
       <c r="G62" s="3">
-        <v>5171300</v>
+        <v>4395300</v>
       </c>
       <c r="H62" s="3">
-        <v>4571000</v>
+        <v>5060700</v>
       </c>
       <c r="I62" s="3">
-        <v>4608000</v>
+        <v>4473300</v>
       </c>
       <c r="J62" s="3">
+        <v>4509500</v>
+      </c>
+      <c r="K62" s="3">
         <v>3911300</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2101,9 +2214,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2128,9 +2244,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2155,36 +2274,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>30916400</v>
+        <v>29870000</v>
       </c>
       <c r="E66" s="3">
-        <v>24288800</v>
+        <v>30255400</v>
       </c>
       <c r="F66" s="3">
-        <v>25929200</v>
+        <v>23769500</v>
       </c>
       <c r="G66" s="3">
-        <v>26852600</v>
+        <v>25374800</v>
       </c>
       <c r="H66" s="3">
-        <v>26003200</v>
+        <v>26278400</v>
       </c>
       <c r="I66" s="3">
-        <v>25952800</v>
+        <v>25447200</v>
       </c>
       <c r="J66" s="3">
+        <v>25397800</v>
+      </c>
+      <c r="K66" s="3">
         <v>24300100</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2196,8 +2321,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2222,9 +2348,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2249,9 +2378,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2276,9 +2408,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2303,36 +2438,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-4811100</v>
+        <v>-1313200</v>
       </c>
       <c r="E72" s="3">
-        <v>348900</v>
+        <v>-4617100</v>
       </c>
       <c r="F72" s="3">
-        <v>-509400</v>
+        <v>341500</v>
       </c>
       <c r="G72" s="3">
-        <v>-4998500</v>
+        <v>-498500</v>
       </c>
       <c r="H72" s="3">
-        <v>-1055800</v>
+        <v>-4891600</v>
       </c>
       <c r="I72" s="3">
-        <v>452200</v>
+        <v>-1033200</v>
       </c>
       <c r="J72" s="3">
+        <v>442500</v>
+      </c>
+      <c r="K72" s="3">
         <v>1991500</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2357,9 +2498,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2384,9 +2528,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2411,36 +2558,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2701800</v>
+        <v>2034600</v>
       </c>
       <c r="E76" s="3">
-        <v>1440600</v>
+        <v>2644000</v>
       </c>
       <c r="F76" s="3">
-        <v>252400</v>
+        <v>1409800</v>
       </c>
       <c r="G76" s="3">
-        <v>-776400</v>
+        <v>247100</v>
       </c>
       <c r="H76" s="3">
-        <v>2518900</v>
+        <v>-759800</v>
       </c>
       <c r="I76" s="3">
-        <v>4026800</v>
+        <v>2465000</v>
       </c>
       <c r="J76" s="3">
+        <v>3940700</v>
+      </c>
+      <c r="K76" s="3">
         <v>5561700</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2465,68 +2618,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
         <v>43100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42735</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42369</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42004</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41639</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41274</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40908</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>154800</v>
+        <v>408500</v>
       </c>
       <c r="E81" s="3">
-        <v>888600</v>
+        <v>151500</v>
       </c>
       <c r="F81" s="3">
-        <v>112200</v>
+        <v>869600</v>
       </c>
       <c r="G81" s="3">
-        <v>-252400</v>
+        <v>109800</v>
       </c>
       <c r="H81" s="3">
-        <v>-2049900</v>
+        <v>-247100</v>
       </c>
       <c r="I81" s="3">
-        <v>-1374400</v>
+        <v>-2006000</v>
       </c>
       <c r="J81" s="3">
+        <v>-1345100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-495900</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2538,35 +2700,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1992700</v>
+        <v>3167700</v>
       </c>
       <c r="E83" s="3">
-        <v>1868100</v>
+        <v>3118300</v>
       </c>
       <c r="F83" s="3">
-        <v>1831100</v>
+        <v>1828200</v>
       </c>
       <c r="G83" s="3">
-        <v>1935400</v>
+        <v>1791900</v>
       </c>
       <c r="H83" s="3">
-        <v>1946700</v>
+        <v>1894100</v>
       </c>
       <c r="I83" s="3">
-        <v>1961200</v>
-      </c>
-      <c r="J83" s="3" t="s">
+        <v>1905000</v>
+      </c>
+      <c r="J83" s="3">
+        <v>1919300</v>
+      </c>
+      <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2591,9 +2757,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2618,9 +2787,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2645,9 +2817,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2672,9 +2847,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2699,36 +2877,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3251500</v>
+        <v>4075800</v>
       </c>
       <c r="E89" s="3">
-        <v>2512100</v>
+        <v>4500700</v>
       </c>
       <c r="F89" s="3">
-        <v>2131800</v>
+        <v>2458400</v>
       </c>
       <c r="G89" s="3">
-        <v>1142200</v>
+        <v>2086200</v>
       </c>
       <c r="H89" s="3">
-        <v>1659400</v>
+        <v>1117800</v>
       </c>
       <c r="I89" s="3">
-        <v>954800</v>
+        <v>1623900</v>
       </c>
       <c r="J89" s="3">
+        <v>934400</v>
+      </c>
+      <c r="K89" s="3">
         <v>626100</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2740,35 +2924,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2325900</v>
+        <v>-2759300</v>
       </c>
       <c r="E91" s="3">
-        <v>-2148600</v>
+        <v>-2549600</v>
       </c>
       <c r="F91" s="3">
-        <v>-3560100</v>
+        <v>-2102700</v>
       </c>
       <c r="G91" s="3">
-        <v>-1605600</v>
+        <v>-3484000</v>
       </c>
       <c r="H91" s="3">
-        <v>-1330700</v>
+        <v>-1571200</v>
       </c>
       <c r="I91" s="3">
-        <v>-1651600</v>
+        <v>-1302200</v>
       </c>
       <c r="J91" s="3">
+        <v>-1616300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2100400</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2793,9 +2981,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2820,36 +3011,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2755600</v>
+        <v>-2874600</v>
       </c>
       <c r="E94" s="3">
-        <v>-815700</v>
+        <v>-2955800</v>
       </c>
       <c r="F94" s="3">
-        <v>-1303800</v>
+        <v>-798200</v>
       </c>
       <c r="G94" s="3">
-        <v>-635000</v>
+        <v>-1275900</v>
       </c>
       <c r="H94" s="3">
-        <v>-1036700</v>
+        <v>-621500</v>
       </c>
       <c r="I94" s="3">
-        <v>-274900</v>
-      </c>
-      <c r="J94" s="3" t="s">
+        <v>-1014600</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-269000</v>
+      </c>
+      <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2861,35 +3058,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-42600</v>
+        <v>-41700</v>
       </c>
       <c r="E96" s="3">
-        <v>-42600</v>
+        <v>-41700</v>
       </c>
       <c r="F96" s="3">
-        <v>-21300</v>
+        <v>-41700</v>
       </c>
       <c r="G96" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-3400</v>
       </c>
-      <c r="H96" s="3">
-        <v>-4500</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2914,9 +3115,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2941,9 +3145,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2968,88 +3175,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>364600</v>
+        <v>-2402400</v>
       </c>
       <c r="E100" s="3">
-        <v>-748400</v>
+        <v>-702700</v>
       </c>
       <c r="F100" s="3">
-        <v>-565500</v>
+        <v>-732400</v>
       </c>
       <c r="G100" s="3">
-        <v>-1102900</v>
+        <v>-553400</v>
       </c>
       <c r="H100" s="3">
-        <v>-177300</v>
+        <v>-1079300</v>
       </c>
       <c r="I100" s="3">
-        <v>486900</v>
-      </c>
-      <c r="J100" s="3" t="s">
+        <v>-173500</v>
+      </c>
+      <c r="J100" s="3">
+        <v>476500</v>
+      </c>
+      <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-37000</v>
+        <v>7700</v>
       </c>
       <c r="E101" s="3">
-        <v>-14600</v>
+        <v>-36200</v>
       </c>
       <c r="F101" s="3">
-        <v>-48200</v>
+        <v>-14300</v>
       </c>
       <c r="G101" s="3">
-        <v>-86400</v>
+        <v>-47200</v>
       </c>
       <c r="H101" s="3">
-        <v>-40400</v>
+        <v>-84500</v>
       </c>
       <c r="I101" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="J101" s="3" t="s">
+        <v>-39500</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>823500</v>
+        <v>-1193500</v>
       </c>
       <c r="E102" s="3">
-        <v>933500</v>
+        <v>805900</v>
       </c>
       <c r="F102" s="3">
-        <v>214300</v>
+        <v>913500</v>
       </c>
       <c r="G102" s="3">
-        <v>-682200</v>
+        <v>209700</v>
       </c>
       <c r="H102" s="3">
-        <v>405000</v>
+        <v>-667600</v>
       </c>
       <c r="I102" s="3">
-        <v>1163500</v>
+        <v>396400</v>
       </c>
       <c r="J102" s="3">
+        <v>1138600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1640300</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
